--- a/char/Uldar/Uldar Brightwood_AllSkills.xlsx
+++ b/char/Uldar/Uldar Brightwood_AllSkills.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="392">
   <si>
     <t>Skills</t>
   </si>
@@ -634,12 +634,15 @@
     <t>ST/AG</t>
   </si>
   <si>
+    <t>Katana</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
     <t>Lance</t>
   </si>
   <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>Lancing</t>
   </si>
   <si>
@@ -1069,7 +1072,13 @@
     <t>TWC - Scimitar: RH</t>
   </si>
   <si>
-    <t>TWC:Scimitar/Dagger</t>
+    <t>TWC:2-H Sword/2-H Sword</t>
+  </si>
+  <si>
+    <t>TWC:Dagger/Dagger</t>
+  </si>
+  <si>
+    <t>TWC:Mace/Mace</t>
   </si>
   <si>
     <t>Tactical Games</t>
@@ -1564,7 +1573,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M290"/>
+  <dimension ref="A1:M293"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1572,7 +1581,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="26"/>
+    <col customWidth="1" max="1" min="1" width="28"/>
     <col customWidth="1" max="2" min="2" width="5.5"/>
     <col customWidth="1" max="3" min="3" width="10"/>
     <col customWidth="1" max="4" min="4" width="6.5"/>
@@ -6924,7 +6933,7 @@
         <v>0</v>
       </c>
       <c r="J131" s="7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="K131" s="7" t="n">
         <v>0</v>
@@ -6933,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="M131" s="9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:13">
@@ -6941,10 +6950,10 @@
         <v>207</v>
       </c>
       <c r="B132" s="7" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="C132" s="7" t="s">
-        <v>204</v>
+        <v>71</v>
       </c>
       <c r="D132" s="7" t="n">
         <v>0</v>
@@ -6982,10 +6991,10 @@
         <v>208</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C133" s="7" t="s">
-        <v>97</v>
+        <v>204</v>
       </c>
       <c r="D133" s="7" t="n">
         <v>0</v>
@@ -7006,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="J133" s="7" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="K133" s="7" t="n">
         <v>0</v>
@@ -7015,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="M133" s="9" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="134" spans="1:13">
@@ -7023,10 +7032,10 @@
         <v>209</v>
       </c>
       <c r="B134" s="7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C134" s="7" t="s">
-        <v>210</v>
+        <v>97</v>
       </c>
       <c r="D134" s="7" t="n">
         <v>0</v>
@@ -7047,7 +7056,7 @@
         <v>0</v>
       </c>
       <c r="J134" s="7" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K134" s="7" t="n">
         <v>0</v>
@@ -7056,19 +7065,19 @@
         <v>0</v>
       </c>
       <c r="M134" s="9" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C135" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C135" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="D135" s="7" t="n">
         <v>0</v>
       </c>
@@ -7079,16 +7088,16 @@
         <v>0</v>
       </c>
       <c r="G135" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H135" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" s="7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J135" s="7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K135" s="7" t="n">
         <v>0</v>
@@ -7097,7 +7106,7 @@
         <v>0</v>
       </c>
       <c r="M135" s="9" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="136" spans="1:13">
@@ -7105,40 +7114,40 @@
         <v>212</v>
       </c>
       <c r="B136" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C136" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D136" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H136" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I136" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J136" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K136" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M136" s="9" t="n">
         <v>24</v>
-      </c>
-      <c r="C136" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D136" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H136" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" s="7" t="n">
-        <v>12</v>
-      </c>
-      <c r="K136" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L136" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M136" s="9" t="n">
-        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:13">
@@ -7146,10 +7155,10 @@
         <v>213</v>
       </c>
       <c r="B137" s="7" t="s">
-        <v>214</v>
+        <v>24</v>
       </c>
       <c r="C137" s="7" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
       <c r="D137" s="7" t="n">
         <v>0</v>
@@ -7170,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="J137" s="7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K137" s="7" t="n">
         <v>0</v>
@@ -7179,18 +7188,18 @@
         <v>0</v>
       </c>
       <c r="M137" s="9" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B138" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="C138" s="7" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D138" s="7" t="n">
         <v>0</v>
@@ -7211,7 +7220,7 @@
         <v>0</v>
       </c>
       <c r="J138" s="7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="K138" s="7" t="n">
         <v>0</v>
@@ -7220,7 +7229,7 @@
         <v>0</v>
       </c>
       <c r="M138" s="9" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:13">
@@ -7228,10 +7237,10 @@
         <v>216</v>
       </c>
       <c r="B139" s="7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C139" s="7" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D139" s="7" t="n">
         <v>0</v>
@@ -7252,7 +7261,7 @@
         <v>0</v>
       </c>
       <c r="J139" s="7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K139" s="7" t="n">
         <v>0</v>
@@ -7261,7 +7270,7 @@
         <v>0</v>
       </c>
       <c r="M139" s="9" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="140" spans="1:13">
@@ -7269,10 +7278,10 @@
         <v>217</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
       <c r="D140" s="7" t="n">
         <v>0</v>
@@ -7284,16 +7293,16 @@
         <v>0</v>
       </c>
       <c r="G140" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H140" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J140" s="7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K140" s="7" t="n">
         <v>0</v>
@@ -7302,7 +7311,7 @@
         <v>0</v>
       </c>
       <c r="M140" s="9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:13">
@@ -7310,10 +7319,10 @@
         <v>218</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C141" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D141" s="7" t="n">
         <v>0</v>
@@ -7325,25 +7334,25 @@
         <v>0</v>
       </c>
       <c r="G141" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H141" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J141" s="7" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K141" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L141" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M141" s="9" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="142" spans="1:13">
@@ -7351,10 +7360,10 @@
         <v>219</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="C142" s="7" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="D142" s="7" t="n">
         <v>0</v>
@@ -7375,16 +7384,16 @@
         <v>0</v>
       </c>
       <c r="J142" s="7" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="K142" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L142" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M142" s="9" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="143" spans="1:13">
@@ -7392,10 +7401,10 @@
         <v>220</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C143" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D143" s="7" t="n">
         <v>0</v>
@@ -7416,7 +7425,7 @@
         <v>0</v>
       </c>
       <c r="J143" s="7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K143" s="7" t="n">
         <v>0</v>
@@ -7425,7 +7434,7 @@
         <v>0</v>
       </c>
       <c r="M143" s="9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:13">
@@ -7559,7 +7568,7 @@
         <v>48</v>
       </c>
       <c r="C147" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D147" s="7" t="n">
         <v>0</v>
@@ -7580,7 +7589,7 @@
         <v>0</v>
       </c>
       <c r="J147" s="7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K147" s="7" t="n">
         <v>0</v>
@@ -7589,7 +7598,7 @@
         <v>0</v>
       </c>
       <c r="M147" s="9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="148" spans="1:13">
@@ -7720,10 +7729,10 @@
         <v>228</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C151" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D151" s="7" t="n">
         <v>0</v>
@@ -7744,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="J151" s="7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K151" s="7" t="n">
         <v>0</v>
@@ -7753,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="M151" s="9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:13">
@@ -7761,10 +7770,10 @@
         <v>229</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="C152" s="7" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="D152" s="7" t="n">
         <v>0</v>
@@ -7785,27 +7794,27 @@
         <v>0</v>
       </c>
       <c r="J152" s="7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K152" s="7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L152" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M152" s="9" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="153" spans="1:13">
       <c r="A153" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B153" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B153" s="7" t="s">
-        <v>65</v>
-      </c>
       <c r="C153" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="D153" s="7" t="n">
         <v>0</v>
@@ -7826,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="J153" s="7" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="K153" s="7" t="n">
         <v>27</v>
@@ -7835,7 +7844,7 @@
         <v>0</v>
       </c>
       <c r="M153" s="9" t="n">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="154" spans="1:13">
@@ -7843,10 +7852,10 @@
         <v>232</v>
       </c>
       <c r="B154" s="7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C154" s="7" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="D154" s="7" t="n">
         <v>0</v>
@@ -7867,16 +7876,16 @@
         <v>0</v>
       </c>
       <c r="J154" s="7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K154" s="7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L154" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M154" s="9" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="155" spans="1:13">
@@ -7884,10 +7893,10 @@
         <v>233</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
       <c r="C155" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D155" s="7" t="n">
         <v>0</v>
@@ -7908,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="J155" s="7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K155" s="7" t="n">
         <v>0</v>
@@ -7917,7 +7926,7 @@
         <v>0</v>
       </c>
       <c r="M155" s="9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="156" spans="1:13">
@@ -7925,7 +7934,7 @@
         <v>234</v>
       </c>
       <c r="B156" s="7" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="C156" s="7" t="s">
         <v>106</v>
@@ -7966,7 +7975,7 @@
         <v>235</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="C157" s="7" t="s">
         <v>106</v>
@@ -8048,10 +8057,10 @@
         <v>237</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="D159" s="7" t="n">
         <v>0</v>
@@ -8063,25 +8072,25 @@
         <v>0</v>
       </c>
       <c r="G159" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J159" s="7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K159" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L159" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M159" s="9" t="n">
-        <v>44</v>
+        <v>13</v>
       </c>
     </row>
     <row r="160" spans="1:13">
@@ -8089,10 +8098,10 @@
         <v>238</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>114</v>
+        <v>39</v>
       </c>
       <c r="D160" s="7" t="n">
         <v>0</v>
@@ -8104,16 +8113,16 @@
         <v>0</v>
       </c>
       <c r="G160" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J160" s="7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K160" s="7" t="n">
         <v>18</v>
@@ -8122,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="M160" s="9" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="161" spans="1:13">
@@ -8130,10 +8139,10 @@
         <v>239</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="D161" s="7" t="n">
         <v>0</v>
@@ -8154,16 +8163,16 @@
         <v>0</v>
       </c>
       <c r="J161" s="7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K161" s="7" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L161" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M161" s="9" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="162" spans="1:13">
@@ -8171,10 +8180,10 @@
         <v>240</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="D162" s="7" t="n">
         <v>0</v>
@@ -8195,7 +8204,7 @@
         <v>0</v>
       </c>
       <c r="J162" s="7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K162" s="7" t="n">
         <v>9</v>
@@ -8204,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="M162" s="9" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="163" spans="1:13">
       <c r="A163" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="C163" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C163" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="D163" s="7" t="n">
         <v>0</v>
       </c>
@@ -8236,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="J163" s="7" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="K163" s="7" t="n">
         <v>9</v>
@@ -8245,7 +8254,7 @@
         <v>0</v>
       </c>
       <c r="M163" s="9" t="n">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="164" spans="1:13">
@@ -8253,10 +8262,10 @@
         <v>244</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>242</v>
+        <v>88</v>
       </c>
       <c r="D164" s="7" t="n">
         <v>0</v>
@@ -8277,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="J164" s="7" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="K164" s="7" t="n">
         <v>9</v>
@@ -8286,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="M164" s="9" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="165" spans="1:13">
@@ -8294,10 +8303,10 @@
         <v>245</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D165" s="7" t="n">
         <v>0</v>
@@ -8318,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="J165" s="7" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K165" s="7" t="n">
         <v>9</v>
@@ -8327,19 +8336,19 @@
         <v>0</v>
       </c>
       <c r="M165" s="9" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
     </row>
     <row r="166" spans="1:13">
       <c r="A166" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C166" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C166" s="7" t="s">
-        <v>28</v>
-      </c>
       <c r="D166" s="7" t="n">
         <v>0</v>
       </c>
@@ -8350,16 +8359,16 @@
         <v>0</v>
       </c>
       <c r="G166" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H166" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J166" s="7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K166" s="7" t="n">
         <v>9</v>
@@ -8368,7 +8377,7 @@
         <v>0</v>
       </c>
       <c r="M166" s="9" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:13">
@@ -8376,10 +8385,10 @@
         <v>248</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>21</v>
+        <v>156</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="D167" s="7" t="n">
         <v>0</v>
@@ -8391,25 +8400,25 @@
         <v>0</v>
       </c>
       <c r="G167" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H167" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I167" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J167" s="7" t="n">
+        <v>14</v>
+      </c>
+      <c r="K167" s="7" t="n">
         <v>9</v>
       </c>
-      <c r="K167" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="L167" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M167" s="9" t="n">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="168" spans="1:13">
@@ -8417,10 +8426,10 @@
         <v>249</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D168" s="7" t="n">
         <v>0</v>
@@ -8441,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J168" s="7" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K168" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L168" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M168" s="9" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="169" spans="1:13">
@@ -8458,10 +8467,10 @@
         <v>250</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="D169" s="7" t="n">
         <v>0</v>
@@ -8482,28 +8491,28 @@
         <v>0</v>
       </c>
       <c r="J169" s="7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K169" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L169" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M169" s="9" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="170" spans="1:13">
       <c r="A170" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C170" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="B170" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C170" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="D170" s="7" t="n">
         <v>0</v>
       </c>
@@ -8523,16 +8532,16 @@
         <v>0</v>
       </c>
       <c r="J170" s="7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K170" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L170" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M170" s="9" t="n">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="171" spans="1:13">
@@ -8543,7 +8552,7 @@
         <v>18</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="D171" s="7" t="n">
         <v>0</v>
@@ -8564,16 +8573,16 @@
         <v>0</v>
       </c>
       <c r="J171" s="7" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K171" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L171" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M171" s="9" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="172" spans="1:13">
@@ -8581,10 +8590,10 @@
         <v>254</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>255</v>
+        <v>110</v>
       </c>
       <c r="D172" s="7" t="n">
         <v>0</v>
@@ -8605,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="J172" s="7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K172" s="7" t="n">
         <v>0</v>
@@ -8614,19 +8623,19 @@
         <v>0</v>
       </c>
       <c r="M172" s="9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="173" spans="1:13">
       <c r="A173" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C173" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="B173" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="C173" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="D173" s="7" t="n">
         <v>0</v>
       </c>
@@ -8646,7 +8655,7 @@
         <v>0</v>
       </c>
       <c r="J173" s="7" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K173" s="7" t="n">
         <v>0</v>
@@ -8655,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="M173" s="9" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="174" spans="1:13">
@@ -8663,10 +8672,10 @@
         <v>257</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>15</v>
+        <v>152</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="D174" s="7" t="n">
         <v>0</v>
@@ -8687,16 +8696,16 @@
         <v>0</v>
       </c>
       <c r="J174" s="7" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="K174" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L174" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M174" s="9" t="n">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="175" spans="1:13">
@@ -8704,40 +8713,40 @@
         <v>258</v>
       </c>
       <c r="B175" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D175" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E175" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G175" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" s="7" t="n">
+        <v>9</v>
+      </c>
+      <c r="K175" s="7" t="n">
         <v>18</v>
       </c>
-      <c r="C175" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="D175" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E175" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F175" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G175" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H175" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" s="7" t="n">
-        <v>11</v>
-      </c>
-      <c r="K175" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="L175" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M175" s="9" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="176" spans="1:13">
@@ -8745,10 +8754,10 @@
         <v>259</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>260</v>
+        <v>142</v>
       </c>
       <c r="D176" s="7" t="n">
         <v>0</v>
@@ -8760,37 +8769,37 @@
         <v>0</v>
       </c>
       <c r="G176" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H176" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I176" s="7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J176" s="7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K176" s="7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L176" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M176" s="9" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
     <row r="177" spans="1:13">
       <c r="A177" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C177" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B177" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C177" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="D177" s="7" t="n">
         <v>0</v>
       </c>
@@ -8801,25 +8810,25 @@
         <v>0</v>
       </c>
       <c r="G177" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H177" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I177" s="7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J177" s="7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K177" s="7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L177" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M177" s="9" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -8830,7 +8839,7 @@
         <v>24</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>110</v>
+        <v>71</v>
       </c>
       <c r="D178" s="7" t="n">
         <v>0</v>
@@ -8851,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="J178" s="7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K178" s="7" t="n">
         <v>0</v>
@@ -8860,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="M178" s="9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -8868,10 +8877,10 @@
         <v>263</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>264</v>
+        <v>110</v>
       </c>
       <c r="D179" s="7" t="n">
         <v>0</v>
@@ -8892,7 +8901,7 @@
         <v>0</v>
       </c>
       <c r="J179" s="7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K179" s="7" t="n">
         <v>0</v>
@@ -8901,18 +8910,18 @@
         <v>0</v>
       </c>
       <c r="M179" s="9" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:13">
       <c r="A180" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B180" s="7" t="s">
         <v>52</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="D180" s="7" t="n">
         <v>0</v>
@@ -8933,16 +8942,16 @@
         <v>0</v>
       </c>
       <c r="J180" s="7" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K180" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L180" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M180" s="9" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -8950,10 +8959,10 @@
         <v>266</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="D181" s="7" t="n">
         <v>0</v>
@@ -8974,16 +8983,16 @@
         <v>0</v>
       </c>
       <c r="J181" s="7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K181" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L181" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M181" s="9" t="n">
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -8991,40 +9000,40 @@
         <v>267</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>61</v>
+        <v>142</v>
       </c>
       <c r="D182" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E182" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F182" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G182" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H182" s="7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I182" s="7" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J182" s="7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K182" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L182" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M182" s="9" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
     </row>
     <row r="183" spans="1:13">
@@ -9032,28 +9041,28 @@
         <v>268</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>38</v>
+        <v>123</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D183" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E183" s="7" t="n">
         <v>0</v>
       </c>
       <c r="F183" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G183" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H183" s="7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I183" s="7" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J183" s="7" t="n">
         <v>21</v>
@@ -9065,7 +9074,7 @@
         <v>0</v>
       </c>
       <c r="M183" s="9" t="n">
-        <v>39</v>
+        <v>74</v>
       </c>
     </row>
     <row r="184" spans="1:13">
@@ -9073,10 +9082,10 @@
         <v>269</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="D184" s="7" t="n">
         <v>0</v>
@@ -9097,16 +9106,16 @@
         <v>0</v>
       </c>
       <c r="J184" s="7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K184" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L184" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M184" s="9" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="185" spans="1:13">
@@ -9114,10 +9123,10 @@
         <v>270</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>271</v>
+        <v>120</v>
       </c>
       <c r="D185" s="7" t="n">
         <v>0</v>
@@ -9138,7 +9147,7 @@
         <v>0</v>
       </c>
       <c r="J185" s="7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K185" s="7" t="n">
         <v>0</v>
@@ -9147,19 +9156,19 @@
         <v>0</v>
       </c>
       <c r="M185" s="9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="186" spans="1:13">
       <c r="A186" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C186" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C186" s="7" t="s">
-        <v>80</v>
-      </c>
       <c r="D186" s="7" t="n">
         <v>0</v>
       </c>
@@ -9179,16 +9188,16 @@
         <v>0</v>
       </c>
       <c r="J186" s="7" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="K186" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L186" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M186" s="9" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187" spans="1:13">
@@ -9196,10 +9205,10 @@
         <v>273</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>274</v>
+        <v>80</v>
       </c>
       <c r="D187" s="7" t="n">
         <v>0</v>
@@ -9220,27 +9229,27 @@
         <v>0</v>
       </c>
       <c r="J187" s="7" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K187" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L187" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M187" s="9" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="188" spans="1:13">
       <c r="A188" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C188" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C188" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="D188" s="7" t="n">
         <v>0</v>
@@ -9278,10 +9287,10 @@
         <v>276</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D189" s="7" t="n">
         <v>0</v>
@@ -9319,10 +9328,10 @@
         <v>277</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="D190" s="7" t="n">
         <v>0</v>
@@ -9343,7 +9352,7 @@
         <v>0</v>
       </c>
       <c r="J190" s="7" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K190" s="7" t="n">
         <v>0</v>
@@ -9352,7 +9361,7 @@
         <v>0</v>
       </c>
       <c r="M190" s="9" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="191" spans="1:13">
@@ -9363,7 +9372,7 @@
         <v>52</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D191" s="7" t="n">
         <v>0</v>
@@ -9384,16 +9393,16 @@
         <v>0</v>
       </c>
       <c r="J191" s="7" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K191" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L191" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M191" s="9" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="192" spans="1:13">
@@ -9401,10 +9410,10 @@
         <v>279</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="D192" s="7" t="n">
         <v>0</v>
@@ -9425,16 +9434,16 @@
         <v>0</v>
       </c>
       <c r="J192" s="7" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="K192" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L192" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M192" s="9" t="n">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="193" spans="1:13">
@@ -9442,10 +9451,10 @@
         <v>280</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="D193" s="7" t="n">
         <v>0</v>
@@ -9466,7 +9475,7 @@
         <v>0</v>
       </c>
       <c r="J193" s="7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K193" s="7" t="n">
         <v>0</v>
@@ -9475,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="M193" s="9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:13">
@@ -9483,10 +9492,10 @@
         <v>281</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>71</v>
+        <v>204</v>
       </c>
       <c r="D194" s="7" t="n">
         <v>0</v>
@@ -9524,10 +9533,10 @@
         <v>282</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>156</v>
+        <v>24</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D195" s="7" t="n">
         <v>0</v>
@@ -9548,16 +9557,16 @@
         <v>0</v>
       </c>
       <c r="J195" s="7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K195" s="7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L195" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M195" s="9" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
     </row>
     <row r="196" spans="1:13">
@@ -9565,10 +9574,10 @@
         <v>283</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>46</v>
+        <v>156</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D196" s="7" t="n">
         <v>0</v>
@@ -9589,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="J196" s="7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K196" s="7" t="n">
         <v>27</v>
@@ -9598,7 +9607,7 @@
         <v>0</v>
       </c>
       <c r="M196" s="9" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="197" spans="1:13">
@@ -9606,40 +9615,40 @@
         <v>284</v>
       </c>
       <c r="B197" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D197" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E197" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G197" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" s="7" t="n">
         <v>27</v>
       </c>
-      <c r="C197" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="D197" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E197" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F197" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G197" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H197" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" s="7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K197" s="7" t="n">
-        <v>9</v>
-      </c>
       <c r="L197" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M197" s="9" t="n">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="198" spans="1:13">
@@ -9647,10 +9656,10 @@
         <v>285</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>56</v>
+        <v>247</v>
       </c>
       <c r="D198" s="7" t="n">
         <v>0</v>
@@ -9671,16 +9680,16 @@
         <v>0</v>
       </c>
       <c r="J198" s="7" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K198" s="7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L198" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M198" s="9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:13">
@@ -9688,10 +9697,10 @@
         <v>286</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D199" s="7" t="n">
         <v>0</v>
@@ -9712,7 +9721,7 @@
         <v>0</v>
       </c>
       <c r="J199" s="7" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="K199" s="7" t="n">
         <v>0</v>
@@ -9721,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="M199" s="9" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
     </row>
     <row r="200" spans="1:13">
@@ -9729,31 +9738,31 @@
         <v>287</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="D200" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E200" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G200" s="7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H200" s="7" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I200" s="7" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="J200" s="7" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="K200" s="7" t="n">
         <v>0</v>
@@ -9762,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="M200" s="9" t="n">
-        <v>51</v>
+        <v>23</v>
       </c>
     </row>
     <row r="201" spans="1:13">
@@ -9770,10 +9779,10 @@
         <v>288</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="D201" s="7" t="n">
         <v>0</v>
@@ -9785,25 +9794,25 @@
         <v>1</v>
       </c>
       <c r="G201" s="7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H201" s="7" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="I201" s="7" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J201" s="7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K201" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L201" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M201" s="9" t="n">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="202" spans="1:13">
@@ -9811,40 +9820,40 @@
         <v>289</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D202" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E202" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G202" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H202" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I202" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J202" s="7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K202" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L202" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M202" s="9" t="n">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="203" spans="1:13">
@@ -9852,10 +9861,10 @@
         <v>290</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="D203" s="7" t="n">
         <v>0</v>
@@ -9876,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="J203" s="7" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K203" s="7" t="n">
         <v>0</v>
@@ -9885,7 +9894,7 @@
         <v>0</v>
       </c>
       <c r="M203" s="9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="204" spans="1:13">
@@ -9893,10 +9902,10 @@
         <v>291</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>42</v>
+        <v>106</v>
       </c>
       <c r="D204" s="7" t="n">
         <v>0</v>
@@ -9917,7 +9926,7 @@
         <v>0</v>
       </c>
       <c r="J204" s="7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="K204" s="7" t="n">
         <v>0</v>
@@ -9926,7 +9935,7 @@
         <v>0</v>
       </c>
       <c r="M204" s="9" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="205" spans="1:13">
@@ -9934,31 +9943,31 @@
         <v>292</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D205" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E205" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F205" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G205" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H205" s="7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I205" s="7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J205" s="7" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K205" s="7" t="n">
         <v>0</v>
@@ -9967,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="M205" s="9" t="n">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="206" spans="1:13">
@@ -9975,31 +9984,31 @@
         <v>293</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>210</v>
+        <v>39</v>
       </c>
       <c r="D206" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E206" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G206" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H206" s="7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I206" s="7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J206" s="7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K206" s="7" t="n">
         <v>0</v>
@@ -10008,7 +10017,7 @@
         <v>0</v>
       </c>
       <c r="M206" s="9" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="207" spans="1:13">
@@ -10016,31 +10025,31 @@
         <v>294</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>295</v>
+        <v>211</v>
       </c>
       <c r="D207" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E207" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F207" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G207" s="7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H207" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I207" s="7" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J207" s="7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K207" s="7" t="n">
         <v>0</v>
@@ -10049,18 +10058,18 @@
         <v>0</v>
       </c>
       <c r="M207" s="9" t="n">
-        <v>30</v>
+        <v>11</v>
       </c>
     </row>
     <row r="208" spans="1:13">
       <c r="A208" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B208" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="D208" s="7" t="n">
         <v>0</v>
@@ -10081,7 +10090,7 @@
         <v>15</v>
       </c>
       <c r="J208" s="7" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="K208" s="7" t="n">
         <v>0</v>
@@ -10090,7 +10099,7 @@
         <v>0</v>
       </c>
       <c r="M208" s="9" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="209" spans="1:13">
@@ -10101,28 +10110,28 @@
         <v>15</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>298</v>
+        <v>86</v>
       </c>
       <c r="D209" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E209" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F209" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G209" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H209" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I209" s="7" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J209" s="7" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="K209" s="7" t="n">
         <v>0</v>
@@ -10131,19 +10140,19 @@
         <v>0</v>
       </c>
       <c r="M209" s="9" t="n">
-        <v>4</v>
+        <v>38</v>
       </c>
     </row>
     <row r="210" spans="1:13">
       <c r="A210" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C210" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="B210" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C210" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="D210" s="7" t="n">
         <v>0</v>
       </c>
@@ -10151,28 +10160,28 @@
         <v>0</v>
       </c>
       <c r="F210" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G210" s="7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="H210" s="7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I210" s="7" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="J210" s="7" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="K210" s="7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L210" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M210" s="9" t="n">
-        <v>75</v>
+        <v>4</v>
       </c>
     </row>
     <row r="211" spans="1:13">
@@ -10180,10 +10189,10 @@
         <v>300</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="D211" s="7" t="n">
         <v>0</v>
@@ -10192,28 +10201,28 @@
         <v>0</v>
       </c>
       <c r="F211" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G211" s="7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H211" s="7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I211" s="7" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="J211" s="7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K211" s="7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L211" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M211" s="9" t="n">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="212" spans="1:13">
@@ -10221,10 +10230,10 @@
         <v>301</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>302</v>
+        <v>15</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>303</v>
+        <v>120</v>
       </c>
       <c r="D212" s="7" t="n">
         <v>0</v>
@@ -10245,28 +10254,28 @@
         <v>0</v>
       </c>
       <c r="J212" s="7" t="n">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="K212" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L212" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M212" s="9" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="213" spans="1:13">
       <c r="A213" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="C213" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="B213" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C213" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="D213" s="7" t="n">
         <v>0</v>
       </c>
@@ -10286,16 +10295,16 @@
         <v>0</v>
       </c>
       <c r="J213" s="7" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K213" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L213" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M213" s="9" t="n">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="214" spans="1:13">
@@ -10303,10 +10312,10 @@
         <v>305</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D214" s="7" t="n">
         <v>0</v>
@@ -10327,7 +10336,7 @@
         <v>0</v>
       </c>
       <c r="J214" s="7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K214" s="7" t="n">
         <v>0</v>
@@ -10336,7 +10345,7 @@
         <v>0</v>
       </c>
       <c r="M214" s="9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="215" spans="1:13">
@@ -10344,10 +10353,10 @@
         <v>306</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>142</v>
+        <v>42</v>
       </c>
       <c r="D215" s="7" t="n">
         <v>0</v>
@@ -10368,7 +10377,7 @@
         <v>0</v>
       </c>
       <c r="J215" s="7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K215" s="7" t="n">
         <v>0</v>
@@ -10377,7 +10386,7 @@
         <v>0</v>
       </c>
       <c r="M215" s="9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="216" spans="1:13">
@@ -10385,10 +10394,10 @@
         <v>307</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>308</v>
+        <v>142</v>
       </c>
       <c r="D216" s="7" t="n">
         <v>0</v>
@@ -10423,14 +10432,14 @@
     </row>
     <row r="217" spans="1:13">
       <c r="A217" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C217" s="7" t="s">
         <v>309</v>
       </c>
-      <c r="B217" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C217" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="D217" s="7" t="n">
         <v>0</v>
       </c>
@@ -10450,7 +10459,7 @@
         <v>0</v>
       </c>
       <c r="J217" s="7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="K217" s="7" t="n">
         <v>0</v>
@@ -10459,19 +10468,19 @@
         <v>0</v>
       </c>
       <c r="M217" s="9" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="218" spans="1:13">
       <c r="A218" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="B218" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C218" s="7" t="s">
-        <v>50</v>
-      </c>
       <c r="D218" s="7" t="n">
         <v>0</v>
       </c>
@@ -10491,7 +10500,7 @@
         <v>0</v>
       </c>
       <c r="J218" s="7" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="K218" s="7" t="n">
         <v>0</v>
@@ -10500,7 +10509,7 @@
         <v>0</v>
       </c>
       <c r="M218" s="9" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
     </row>
     <row r="219" spans="1:13">
@@ -10508,10 +10517,10 @@
         <v>312</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D219" s="7" t="n">
         <v>0</v>
@@ -10520,19 +10529,19 @@
         <v>0</v>
       </c>
       <c r="F219" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G219" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H219" s="7" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I219" s="7" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J219" s="7" t="n">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="K219" s="7" t="n">
         <v>0</v>
@@ -10541,7 +10550,7 @@
         <v>0</v>
       </c>
       <c r="M219" s="9" t="n">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="220" spans="1:13">
@@ -10549,10 +10558,10 @@
         <v>313</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>156</v>
+        <v>15</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D220" s="7" t="n">
         <v>0</v>
@@ -10561,19 +10570,19 @@
         <v>0</v>
       </c>
       <c r="F220" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G220" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H220" s="7" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I220" s="7" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="J220" s="7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="K220" s="7" t="n">
         <v>0</v>
@@ -10582,7 +10591,7 @@
         <v>0</v>
       </c>
       <c r="M220" s="9" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
     </row>
     <row r="221" spans="1:13">
@@ -10590,10 +10599,10 @@
         <v>314</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>103</v>
+        <v>156</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>114</v>
+        <v>56</v>
       </c>
       <c r="D221" s="7" t="n">
         <v>0</v>
@@ -10614,7 +10623,7 @@
         <v>0</v>
       </c>
       <c r="J221" s="7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K221" s="7" t="n">
         <v>0</v>
@@ -10623,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="M221" s="9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="222" spans="1:13">
@@ -10631,10 +10640,10 @@
         <v>315</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D222" s="7" t="n">
         <v>0</v>
@@ -10675,7 +10684,7 @@
         <v>24</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D223" s="7" t="n">
         <v>0</v>
@@ -10696,7 +10705,7 @@
         <v>0</v>
       </c>
       <c r="J223" s="7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K223" s="7" t="n">
         <v>0</v>
@@ -10705,7 +10714,7 @@
         <v>0</v>
       </c>
       <c r="M223" s="9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="224" spans="1:13">
@@ -10716,7 +10725,7 @@
         <v>24</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="D224" s="7" t="n">
         <v>0</v>
@@ -10737,7 +10746,7 @@
         <v>0</v>
       </c>
       <c r="J224" s="7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K224" s="7" t="n">
         <v>0</v>
@@ -10746,7 +10755,7 @@
         <v>0</v>
       </c>
       <c r="M224" s="9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:13">
@@ -10754,10 +10763,10 @@
         <v>318</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D225" s="7" t="n">
         <v>0</v>
@@ -10778,16 +10787,16 @@
         <v>0</v>
       </c>
       <c r="J225" s="7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K225" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L225" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M225" s="9" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="226" spans="1:13">
@@ -10795,10 +10804,10 @@
         <v>319</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>241</v>
+        <v>46</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>260</v>
+        <v>95</v>
       </c>
       <c r="D226" s="7" t="n">
         <v>0</v>
@@ -10819,16 +10828,16 @@
         <v>0</v>
       </c>
       <c r="J226" s="7" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="K226" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L226" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M226" s="9" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="227" spans="1:13">
@@ -10836,10 +10845,10 @@
         <v>320</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>27</v>
+        <v>242</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>120</v>
+        <v>261</v>
       </c>
       <c r="D227" s="7" t="n">
         <v>0</v>
@@ -10860,7 +10869,7 @@
         <v>0</v>
       </c>
       <c r="J227" s="7" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="K227" s="7" t="n">
         <v>0</v>
@@ -10869,7 +10878,7 @@
         <v>0</v>
       </c>
       <c r="M227" s="9" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="228" spans="1:13">
@@ -10877,10 +10886,10 @@
         <v>321</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D228" s="7" t="n">
         <v>0</v>
@@ -10901,7 +10910,7 @@
         <v>0</v>
       </c>
       <c r="J228" s="7" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="K228" s="7" t="n">
         <v>0</v>
@@ -10910,7 +10919,7 @@
         <v>0</v>
       </c>
       <c r="M228" s="9" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="229" spans="1:13">
@@ -10918,10 +10927,10 @@
         <v>322</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="D229" s="7" t="n">
         <v>0</v>
@@ -10942,7 +10951,7 @@
         <v>0</v>
       </c>
       <c r="J229" s="7" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="K229" s="7" t="n">
         <v>0</v>
@@ -10951,7 +10960,7 @@
         <v>0</v>
       </c>
       <c r="M229" s="9" t="n">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="230" spans="1:13">
@@ -11003,7 +11012,7 @@
         <v>15</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D231" s="7" t="n">
         <v>0</v>
@@ -11024,7 +11033,7 @@
         <v>0</v>
       </c>
       <c r="J231" s="7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K231" s="7" t="n">
         <v>0</v>
@@ -11033,7 +11042,7 @@
         <v>0</v>
       </c>
       <c r="M231" s="9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232" spans="1:13">
@@ -11041,10 +11050,10 @@
         <v>325</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="D232" s="7" t="n">
         <v>0</v>
@@ -11065,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="J232" s="7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K232" s="7" t="n">
         <v>0</v>
@@ -11074,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="M232" s="9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="233" spans="1:13">
@@ -11082,10 +11091,10 @@
         <v>326</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>204</v>
+        <v>93</v>
       </c>
       <c r="D233" s="7" t="n">
         <v>0</v>
@@ -11106,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="J233" s="7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="K233" s="7" t="n">
         <v>0</v>
@@ -11115,7 +11124,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:13">
@@ -11123,10 +11132,10 @@
         <v>327</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>68</v>
+        <v>204</v>
       </c>
       <c r="D234" s="7" t="n">
         <v>0</v>
@@ -11147,16 +11156,16 @@
         <v>0</v>
       </c>
       <c r="J234" s="7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K234" s="7" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L234" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M234" s="9" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="235" spans="1:13">
@@ -11164,10 +11173,10 @@
         <v>328</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D235" s="7" t="n">
         <v>0</v>
@@ -11188,16 +11197,16 @@
         <v>0</v>
       </c>
       <c r="J235" s="7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K235" s="7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L235" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M235" s="9" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="236" spans="1:13">
@@ -11205,10 +11214,10 @@
         <v>329</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>157</v>
+        <v>71</v>
       </c>
       <c r="D236" s="7" t="n">
         <v>0</v>
@@ -11217,28 +11226,28 @@
         <v>0</v>
       </c>
       <c r="F236" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G236" s="7" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H236" s="7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="I236" s="7" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="J236" s="7" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="K236" s="7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L236" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M236" s="9" t="n">
-        <v>122</v>
+        <v>11</v>
       </c>
     </row>
     <row r="237" spans="1:13">
@@ -11246,7 +11255,7 @@
         <v>330</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
       <c r="C237" s="7" t="s">
         <v>157</v>
@@ -11258,16 +11267,16 @@
         <v>0</v>
       </c>
       <c r="F237" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G237" s="7" t="n">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="H237" s="7" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="I237" s="7" t="n">
-        <v>15</v>
+        <v>78</v>
       </c>
       <c r="J237" s="7" t="n">
         <v>17</v>
@@ -11279,7 +11288,7 @@
         <v>0</v>
       </c>
       <c r="M237" s="9" t="n">
-        <v>59</v>
+        <v>122</v>
       </c>
     </row>
     <row r="238" spans="1:13">
@@ -11287,81 +11296,81 @@
         <v>331</v>
       </c>
       <c r="B238" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="D238" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E238" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F238" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G238" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H238" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="I238" s="7" t="n">
         <v>15</v>
       </c>
-      <c r="C238" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="D238" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E238" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F238" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G238" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H238" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" s="7" t="n">
-        <v>0</v>
-      </c>
       <c r="J238" s="7" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="K238" s="7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L238" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M238" s="9" t="n">
-        <v>20</v>
+        <v>59</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C239" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="B239" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C239" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="D239" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E239" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G239" s="7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H239" s="7" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I239" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J239" s="7" t="n">
         <v>20</v>
       </c>
-      <c r="J239" s="7" t="n">
-        <v>5</v>
-      </c>
       <c r="K239" s="7" t="n">
         <v>0</v>
       </c>
       <c r="L239" s="7" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="M239" s="9" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="240" spans="1:13">
@@ -11369,52 +11378,52 @@
         <v>334</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>335</v>
+        <v>110</v>
       </c>
       <c r="D240" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E240" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240" s="7" t="n">
         <v>0</v>
       </c>
       <c r="G240" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H240" s="7" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I240" s="7" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="J240" s="7" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="K240" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L240" s="7" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M240" s="9" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C241" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="B241" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C241" s="7" t="s">
-        <v>204</v>
-      </c>
       <c r="D241" s="7" t="n">
         <v>0</v>
       </c>
@@ -11434,16 +11443,16 @@
         <v>0</v>
       </c>
       <c r="J241" s="7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K241" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L241" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M241" s="9" t="n">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="242" spans="1:13">
@@ -11451,10 +11460,10 @@
         <v>337</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="D242" s="7" t="n">
         <v>0</v>
@@ -11475,7 +11484,7 @@
         <v>0</v>
       </c>
       <c r="J242" s="7" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="K242" s="7" t="n">
         <v>0</v>
@@ -11484,7 +11493,7 @@
         <v>0</v>
       </c>
       <c r="M242" s="9" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="243" spans="1:13">
@@ -11492,10 +11501,10 @@
         <v>338</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>42</v>
+        <v>148</v>
       </c>
       <c r="D243" s="7" t="n">
         <v>0</v>
@@ -11516,7 +11525,7 @@
         <v>0</v>
       </c>
       <c r="J243" s="7" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K243" s="7" t="n">
         <v>0</v>
@@ -11525,7 +11534,7 @@
         <v>0</v>
       </c>
       <c r="M243" s="9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="244" spans="1:13">
@@ -11533,10 +11542,10 @@
         <v>339</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="D244" s="7" t="n">
         <v>0</v>
@@ -11557,16 +11566,16 @@
         <v>0</v>
       </c>
       <c r="J244" s="7" t="n">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="K244" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L244" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M244" s="9" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="245" spans="1:13">
@@ -11574,10 +11583,10 @@
         <v>340</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="D245" s="7" t="n">
         <v>0</v>
@@ -11598,16 +11607,16 @@
         <v>0</v>
       </c>
       <c r="J245" s="7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K245" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L245" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M245" s="9" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
     </row>
     <row r="246" spans="1:13">
@@ -11615,10 +11624,10 @@
         <v>341</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="D246" s="7" t="n">
         <v>0</v>
@@ -11639,7 +11648,7 @@
         <v>0</v>
       </c>
       <c r="J246" s="7" t="n">
-        <v>-2</v>
+        <v>19</v>
       </c>
       <c r="K246" s="7" t="n">
         <v>0</v>
@@ -11648,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="M246" s="9" t="n">
-        <v>-2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="247" spans="1:13">
@@ -11656,10 +11665,10 @@
         <v>342</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>27</v>
+        <v>77</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="D247" s="7" t="n">
         <v>0</v>
@@ -11680,7 +11689,7 @@
         <v>0</v>
       </c>
       <c r="J247" s="7" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
       <c r="K247" s="7" t="n">
         <v>0</v>
@@ -11689,7 +11698,7 @@
         <v>0</v>
       </c>
       <c r="M247" s="9" t="n">
-        <v>16</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="248" spans="1:13">
@@ -11697,10 +11706,10 @@
         <v>343</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="D248" s="7" t="n">
         <v>0</v>
@@ -11721,7 +11730,7 @@
         <v>0</v>
       </c>
       <c r="J248" s="7" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="K248" s="7" t="n">
         <v>0</v>
@@ -11730,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="M248" s="9" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
     </row>
     <row r="249" spans="1:13">
@@ -11738,10 +11747,10 @@
         <v>344</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="D249" s="7" t="n">
         <v>0</v>
@@ -11762,7 +11771,7 @@
         <v>0</v>
       </c>
       <c r="J249" s="7" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K249" s="7" t="n">
         <v>0</v>
@@ -11771,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="M249" s="9" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="250" spans="1:13">
@@ -11779,10 +11788,10 @@
         <v>345</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>52</v>
+        <v>27</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>255</v>
+        <v>311</v>
       </c>
       <c r="D250" s="7" t="n">
         <v>0</v>
@@ -11803,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="J250" s="7" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K250" s="7" t="n">
         <v>0</v>
@@ -11812,7 +11821,7 @@
         <v>0</v>
       </c>
       <c r="M250" s="9" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="251" spans="1:13">
@@ -11820,32 +11829,32 @@
         <v>346</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="D251" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E251" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F251" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G251" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H251" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I251" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" s="7" t="n">
         <v>3</v>
       </c>
-      <c r="H251" s="7" t="n">
-        <v>5</v>
-      </c>
-      <c r="I251" s="7" t="n">
-        <v>25</v>
-      </c>
-      <c r="J251" s="7" t="n">
-        <v>13</v>
-      </c>
       <c r="K251" s="7" t="n">
         <v>0</v>
       </c>
@@ -11853,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="M251" s="9" t="n">
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="252" spans="1:13">
@@ -11861,40 +11870,40 @@
         <v>347</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="D252" s="7" t="n">
         <v>0</v>
       </c>
       <c r="E252" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252" s="7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G252" s="7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H252" s="7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I252" s="7" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J252" s="7" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="K252" s="7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L252" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M252" s="9" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="253" spans="1:13">
@@ -11902,10 +11911,10 @@
         <v>348</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D253" s="7" t="n">
         <v>0</v>
@@ -11926,24 +11935,24 @@
         <v>0</v>
       </c>
       <c r="J253" s="7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K253" s="7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L253" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M253" s="9" t="n">
-        <v>11</v>
+        <v>48</v>
       </c>
     </row>
     <row r="254" spans="1:13">
       <c r="A254" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B254" s="7" t="s">
-        <v>24</v>
+      <c r="B254" s="7" t="n">
+        <v>40</v>
       </c>
       <c r="C254" s="7" t="s">
         <v>71</v>
@@ -11983,8 +11992,8 @@
       <c r="A255" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B255" s="7" t="s">
-        <v>206</v>
+      <c r="B255" s="7" t="n">
+        <v>40</v>
       </c>
       <c r="C255" s="7" t="s">
         <v>71</v>
@@ -12024,11 +12033,11 @@
       <c r="A256" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B256" s="7" t="s">
-        <v>65</v>
+      <c r="B256" s="7" t="n">
+        <v>18</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
       <c r="D256" s="7" t="n">
         <v>0</v>
@@ -12040,16 +12049,16 @@
         <v>0</v>
       </c>
       <c r="G256" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H256" s="7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J256" s="7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K256" s="7" t="n">
         <v>0</v>
@@ -12058,18 +12067,18 @@
         <v>0</v>
       </c>
       <c r="M256" s="9" t="n">
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="257" spans="1:13">
       <c r="A257" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B257" s="7" t="s">
-        <v>46</v>
+      <c r="B257" s="7" t="n">
+        <v>40</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D257" s="7" t="n">
         <v>0</v>
@@ -12090,27 +12099,27 @@
         <v>0</v>
       </c>
       <c r="J257" s="7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K257" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L257" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M257" s="9" t="n">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="258" spans="1:13">
       <c r="A258" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B258" s="7" t="s">
-        <v>52</v>
+      <c r="B258" s="7" t="n">
+        <v>40</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>354</v>
+        <v>71</v>
       </c>
       <c r="D258" s="7" t="n">
         <v>0</v>
@@ -12131,7 +12140,7 @@
         <v>0</v>
       </c>
       <c r="J258" s="7" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="K258" s="7" t="n">
         <v>0</v>
@@ -12140,18 +12149,18 @@
         <v>0</v>
       </c>
       <c r="M258" s="9" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="259" spans="1:13">
       <c r="A259" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>142</v>
+        <v>39</v>
       </c>
       <c r="D259" s="7" t="n">
         <v>0</v>
@@ -12172,27 +12181,27 @@
         <v>5</v>
       </c>
       <c r="J259" s="7" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="K259" s="7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L259" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M259" s="9" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
     </row>
     <row r="260" spans="1:13">
       <c r="A260" s="6" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D260" s="7" t="n">
         <v>0</v>
@@ -12216,25 +12225,25 @@
         <v>9</v>
       </c>
       <c r="K260" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L260" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M260" s="9" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="261" spans="1:13">
       <c r="A261" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C261" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="B261" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C261" s="7" t="s">
-        <v>110</v>
-      </c>
       <c r="D261" s="7" t="n">
         <v>0</v>
       </c>
@@ -12254,7 +12263,7 @@
         <v>0</v>
       </c>
       <c r="J261" s="7" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="K261" s="7" t="n">
         <v>0</v>
@@ -12263,7 +12272,7 @@
         <v>0</v>
       </c>
       <c r="M261" s="9" t="n">
-        <v>5</v>
+        <v>31</v>
       </c>
     </row>
     <row r="262" spans="1:13">
@@ -12271,10 +12280,10 @@
         <v>358</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="D262" s="7" t="n">
         <v>0</v>
@@ -12286,25 +12295,25 @@
         <v>0</v>
       </c>
       <c r="G262" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H262" s="7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" s="7" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J262" s="7" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K262" s="7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L262" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M262" s="9" t="n">
-        <v>31</v>
+        <v>43</v>
       </c>
     </row>
     <row r="263" spans="1:13">
@@ -12312,10 +12321,10 @@
         <v>359</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D263" s="7" t="n">
         <v>0</v>
@@ -12353,10 +12362,10 @@
         <v>360</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="D264" s="7" t="n">
         <v>0</v>
@@ -12377,7 +12386,7 @@
         <v>0</v>
       </c>
       <c r="J264" s="7" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K264" s="7" t="n">
         <v>0</v>
@@ -12386,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="M264" s="9" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="265" spans="1:13">
@@ -12394,10 +12403,10 @@
         <v>361</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D265" s="7" t="n">
         <v>0</v>
@@ -12409,25 +12418,25 @@
         <v>0</v>
       </c>
       <c r="G265" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H265" s="7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" s="7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J265" s="7" t="n">
         <v>21</v>
       </c>
       <c r="K265" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L265" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M265" s="9" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="266" spans="1:13">
@@ -12435,10 +12444,10 @@
         <v>362</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="D266" s="7" t="n">
         <v>0</v>
@@ -12459,16 +12468,16 @@
         <v>0</v>
       </c>
       <c r="J266" s="7" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K266" s="7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L266" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M266" s="9" t="n">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267" spans="1:13">
@@ -12476,7 +12485,7 @@
         <v>363</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C267" s="7" t="s">
         <v>80</v>
@@ -12517,10 +12526,10 @@
         <v>364</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>365</v>
+        <v>61</v>
       </c>
       <c r="D268" s="7" t="n">
         <v>0</v>
@@ -12541,27 +12550,27 @@
         <v>0</v>
       </c>
       <c r="J268" s="7" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K268" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L268" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M268" s="9" t="n">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="269" spans="1:13">
       <c r="A269" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D269" s="7" t="n">
         <v>0</v>
@@ -12582,27 +12591,27 @@
         <v>0</v>
       </c>
       <c r="J269" s="7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K269" s="7" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="L269" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M269" s="9" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="270" spans="1:13">
       <c r="A270" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>368</v>
+        <v>80</v>
       </c>
       <c r="D270" s="7" t="n">
         <v>0</v>
@@ -12623,7 +12632,7 @@
         <v>0</v>
       </c>
       <c r="J270" s="7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K270" s="7" t="n">
         <v>0</v>
@@ -12632,18 +12641,18 @@
         <v>0</v>
       </c>
       <c r="M270" s="9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271" spans="1:13">
       <c r="A271" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B271" s="7" t="s">
         <v>15</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>16</v>
+        <v>368</v>
       </c>
       <c r="D271" s="7" t="n">
         <v>0</v>
@@ -12664,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="J271" s="7" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="K271" s="7" t="n">
         <v>0</v>
@@ -12673,18 +12682,18 @@
         <v>0</v>
       </c>
       <c r="M271" s="9" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="272" spans="1:13">
       <c r="A272" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D272" s="7" t="n">
         <v>0</v>
@@ -12705,7 +12714,7 @@
         <v>0</v>
       </c>
       <c r="J272" s="7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K272" s="7" t="n">
         <v>0</v>
@@ -12714,18 +12723,18 @@
         <v>0</v>
       </c>
       <c r="M272" s="9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="273" spans="1:13">
       <c r="A273" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C273" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="B273" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C273" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="D273" s="7" t="n">
         <v>0</v>
@@ -12763,10 +12772,10 @@
         <v>372</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>120</v>
+        <v>16</v>
       </c>
       <c r="D274" s="7" t="n">
         <v>0</v>
@@ -12787,7 +12796,7 @@
         <v>0</v>
       </c>
       <c r="J274" s="7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K274" s="7" t="n">
         <v>0</v>
@@ -12796,7 +12805,7 @@
         <v>0</v>
       </c>
       <c r="M274" s="9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="275" spans="1:13">
@@ -12804,10 +12813,10 @@
         <v>373</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="D275" s="7" t="n">
         <v>0</v>
@@ -12828,7 +12837,7 @@
         <v>0</v>
       </c>
       <c r="J275" s="7" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="K275" s="7" t="n">
         <v>0</v>
@@ -12837,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="M275" s="9" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="276" spans="1:13">
@@ -12845,7 +12854,7 @@
         <v>374</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C276" s="7" t="s">
         <v>71</v>
@@ -12886,10 +12895,10 @@
         <v>375</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="D277" s="7" t="n">
         <v>0</v>
@@ -12927,10 +12936,10 @@
         <v>376</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>61</v>
+        <v>247</v>
       </c>
       <c r="D278" s="7" t="n">
         <v>0</v>
@@ -12951,16 +12960,16 @@
         <v>0</v>
       </c>
       <c r="J278" s="7" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="K278" s="7" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="L278" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M278" s="9" t="n">
-        <v>48</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:13">
@@ -12968,10 +12977,10 @@
         <v>377</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="D279" s="7" t="n">
         <v>0</v>
@@ -12992,7 +13001,7 @@
         <v>0</v>
       </c>
       <c r="J279" s="7" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K279" s="7" t="n">
         <v>0</v>
@@ -13001,7 +13010,7 @@
         <v>0</v>
       </c>
       <c r="M279" s="9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="280" spans="1:13">
@@ -13009,10 +13018,10 @@
         <v>378</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="D280" s="7" t="n">
         <v>0</v>
@@ -13033,7 +13042,7 @@
         <v>0</v>
       </c>
       <c r="J280" s="7" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K280" s="7" t="n">
         <v>0</v>
@@ -13042,7 +13051,7 @@
         <v>0</v>
       </c>
       <c r="M280" s="9" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="281" spans="1:13">
@@ -13050,40 +13059,40 @@
         <v>379</v>
       </c>
       <c r="B281" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D281" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E281" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F281" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G281" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H281" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J281" s="7" t="n">
+        <v>21</v>
+      </c>
+      <c r="K281" s="7" t="n">
+        <v>27</v>
+      </c>
+      <c r="L281" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M281" s="9" t="n">
         <v>48</v>
-      </c>
-      <c r="C281" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D281" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E281" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F281" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G281" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H281" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J281" s="7" t="n">
-        <v>16</v>
-      </c>
-      <c r="K281" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L281" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M281" s="9" t="n">
-        <v>16</v>
       </c>
     </row>
     <row r="282" spans="1:13">
@@ -13091,10 +13100,10 @@
         <v>380</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D282" s="7" t="n">
         <v>0</v>
@@ -13115,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="J282" s="7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K282" s="7" t="n">
         <v>0</v>
@@ -13124,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="M282" s="9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="283" spans="1:13">
@@ -13132,10 +13141,10 @@
         <v>381</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>65</v>
+        <v>27</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="D283" s="7" t="n">
         <v>0</v>
@@ -13156,16 +13165,16 @@
         <v>0</v>
       </c>
       <c r="J283" s="7" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K283" s="7" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="L283" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M283" s="9" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="284" spans="1:13">
@@ -13173,10 +13182,10 @@
         <v>382</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="D284" s="7" t="n">
         <v>0</v>
@@ -13197,7 +13206,7 @@
         <v>0</v>
       </c>
       <c r="J284" s="7" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="K284" s="7" t="n">
         <v>0</v>
@@ -13206,7 +13215,7 @@
         <v>0</v>
       </c>
       <c r="M284" s="9" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="285" spans="1:13">
@@ -13214,10 +13223,10 @@
         <v>383</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>368</v>
+        <v>110</v>
       </c>
       <c r="D285" s="7" t="n">
         <v>0</v>
@@ -13238,7 +13247,7 @@
         <v>0</v>
       </c>
       <c r="J285" s="7" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="K285" s="7" t="n">
         <v>0</v>
@@ -13247,7 +13256,7 @@
         <v>0</v>
       </c>
       <c r="M285" s="9" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:13">
@@ -13255,10 +13264,10 @@
         <v>384</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>368</v>
+        <v>56</v>
       </c>
       <c r="D286" s="7" t="n">
         <v>0</v>
@@ -13279,16 +13288,16 @@
         <v>0</v>
       </c>
       <c r="J286" s="7" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="K286" s="7" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="L286" s="7" t="n">
         <v>0</v>
       </c>
       <c r="M286" s="9" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
     </row>
     <row r="287" spans="1:13">
@@ -13296,10 +13305,10 @@
         <v>385</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>368</v>
+        <v>71</v>
       </c>
       <c r="D287" s="7" t="n">
         <v>0</v>
@@ -13340,7 +13349,7 @@
         <v>48</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="D288" s="7" t="n">
         <v>0</v>
@@ -13378,10 +13387,10 @@
         <v>387</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>264</v>
+        <v>371</v>
       </c>
       <c r="D289" s="7" t="n">
         <v>0</v>
@@ -13402,7 +13411,7 @@
         <v>0</v>
       </c>
       <c r="J289" s="7" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K289" s="7" t="n">
         <v>0</v>
@@ -13411,7 +13420,7 @@
         <v>0</v>
       </c>
       <c r="M289" s="9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="290" spans="1:13">
@@ -13419,39 +13428,162 @@
         <v>388</v>
       </c>
       <c r="B290" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D290" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E290" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F290" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G290" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H290" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I290" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J290" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K290" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M290" s="9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13">
+      <c r="A291" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="D291" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E291" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F291" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G291" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H291" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I291" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J291" s="7" t="n">
+        <v>11</v>
+      </c>
+      <c r="K291" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M291" s="9" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13">
+      <c r="A292" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D292" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E292" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F292" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G292" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H292" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I292" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J292" s="7" t="n">
+        <v>15</v>
+      </c>
+      <c r="K292" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M292" s="9" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13">
+      <c r="A293" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="B293" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C290" s="7" t="s">
+      <c r="C293" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="D290" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E290" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F290" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G290" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H290" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I290" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J290" s="7" t="n">
+      <c r="D293" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E293" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F293" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G293" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H293" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I293" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J293" s="7" t="n">
         <v>16</v>
       </c>
-      <c r="K290" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L290" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M290" s="9" t="n">
+      <c r="K293" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" s="7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M293" s="9" t="n">
         <v>16</v>
       </c>
     </row>
